--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pomc-Mc3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pomc-Mc3r.xlsx
@@ -525,34 +525,34 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1885723333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.565717</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.3560076666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.068023</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.02548766666666667</v>
+        <v>0.01499333333333333</v>
       </c>
       <c r="N2">
-        <v>0.076463</v>
+        <v>0.04498</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.009073804738777778</v>
+        <v>0.002827327851111111</v>
       </c>
       <c r="R2">
-        <v>0.081664242649</v>
+        <v>0.02544595066</v>
       </c>
       <c r="S2">
         <v>1</v>
